--- a/biology/Botanique/Johann_Christian_Buxbaum/Johann_Christian_Buxbaum.xlsx
+++ b/biology/Botanique/Johann_Christian_Buxbaum/Johann_Christian_Buxbaum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Christian (ou Johannes Christianus) Buxbaum est un médecin, un botaniste et un explorateur saxon, baptisé le 5 octobre 1693 à Mersebourg (à 25 km à l’ouest de Leipzig) et mort le 7 juillet 1730 à Wermsdorf en Saxe.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il est le fils d’Andreas Buxbaum et de Maria Dorothea née Bretnitz. Il étudie la médecine aux universités de Leipzig, de Wittemberg, d'Iéna et de Leyde. En 1721, à l’invitation de Pierre le Grand (1672-1725), il devient botaniste au jardin botanique du Collège de médecine de Saint-Pétersbourg. En 1724, il devient membre de l’Académie des sciences de Saint-Pétersbourg et professeur à l’école de l’Académie.
 En tant que médecin, Buxbaum accompagne en 1724 le comte Roumiantsev (1680-1749) lors de sa mission diplomatique à Constantinople. Il en profite pour visiter la Grèce. Sur le chemin du retour, il visite l’Asie mineure, Bakou, Derbent et Astrakhan. Il regagne Saint-Pétersbourg en 1727. C'est l’un des premiers à décrire la flore des rivages de la mer Noire, d’Asie mineure et d’Arménie.
